--- a/biology/Botanique/Picea_chihuahuana/Picea_chihuahuana.xlsx
+++ b/biology/Botanique/Picea_chihuahuana/Picea_chihuahuana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Épicéa de Chihuahua
-Picea chihuahuana est une espèce de conifères de la famille des Pinacées[1]. Il est originaire des montagnes du Mexique.
+Picea chihuahuana est une espèce de conifères de la famille des Pinacées. Il est originaire des montagnes du Mexique.
 </t>
         </is>
       </c>
@@ -514,15 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dimensions
-Picea chihuahuana peut mesurer jusqu'à 45 mètres et avoir un tronc d'1,2 mètre de diamètre[2].
-Caractères botaniques
-Picea chihuahuana possède un port conique.
-L'écorce est grise ou brun clair et lisse avant de se fissurer et de devenir écailleuse chez les jeunes sujets. Sur les vieux sujets, l'écorce devient gris-brun foncé et est divisée en petites plaques irrégulières. Les rameaux sont vigoureux, épais, glabres et sont de couleur chamois clair[3].
-Les bourgeons sont ovoïdes, pointus, un peu résineux et ils mesurent de 5 à 9 mm.
-Les aiguilles sont rectilignes, vert-grisâtre, raides, pointues[4], très piquantes et à section carrée. Elles ont une taille allant de 1,2 à 2,3 cm de long pour 1 à 1,8 mm de large. Elles sont disposées en spirale autour des rameaux.
-Les cônes mâles mesurent de 2 à 3 cm et sont rougeâtres.
-Les cônes femelles mesurent de 7 à 11 cm de long pour une largeur de 4 à 5 cm. Ils sont cylindriques, châtain clair et résineux. Ils possèdent beaucoup d'écailles qui contiennent de petites graines noires de 3 à 6 mm possédant chacune une aile jaunâtre allant de 1 à 1,5 cm.
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea chihuahuana peut mesurer jusqu'à 45 mètres et avoir un tronc d'1,2 mètre de diamètre.
 </t>
         </is>
       </c>
@@ -548,16 +558,98 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractères botaniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea chihuahuana possède un port conique.
+L'écorce est grise ou brun clair et lisse avant de se fissurer et de devenir écailleuse chez les jeunes sujets. Sur les vieux sujets, l'écorce devient gris-brun foncé et est divisée en petites plaques irrégulières. Les rameaux sont vigoureux, épais, glabres et sont de couleur chamois clair.
+Les bourgeons sont ovoïdes, pointus, un peu résineux et ils mesurent de 5 à 9 mm.
+Les aiguilles sont rectilignes, vert-grisâtre, raides, pointues, très piquantes et à section carrée. Elles ont une taille allant de 1,2 à 2,3 cm de long pour 1 à 1,8 mm de large. Elles sont disposées en spirale autour des rameaux.
+Les cônes mâles mesurent de 2 à 3 cm et sont rougeâtres.
+Les cônes femelles mesurent de 7 à 11 cm de long pour une largeur de 4 à 5 cm. Ils sont cylindriques, châtain clair et résineux. Ils possèdent beaucoup d'écailles qui contiennent de petites graines noires de 3 à 6 mm possédant chacune une aile jaunâtre allant de 1 à 1,5 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Picea_chihuahuana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Picea_chihuahuana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distribution
-Picea chihuahuana pousse naturellement à partir de 2000 mètres jusqu'à 3400 mètres d'altitude dans les montagnes (Sierra Madre occidentale) du Mexique et plus précisément dans le sud-ouest de l'État de Chihuahua et à l'ouest du Durango[5]. De tous les épicéas américains, il est le plus méridional.
-Exigences
-Picea chihuahuana se plaît beaucoup dans tous les types de sols.
-Il supporte bien la chaleur[6] ainsi que le froid jusqu'à environ -16 °C.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea chihuahuana pousse naturellement à partir de 2000 mètres jusqu'à 3400 mètres d'altitude dans les montagnes (Sierra Madre occidentale) du Mexique et plus précisément dans le sud-ouest de l'État de Chihuahua et à l'ouest du Durango. De tous les épicéas américains, il est le plus méridional.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Picea_chihuahuana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Picea_chihuahuana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Exigences</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picea chihuahuana se plaît beaucoup dans tous les types de sols.
+Il supporte bien la chaleur ainsi que le froid jusqu'à environ -16 °C.
 Il s'agit d'un des conifères les plus résistants.
 </t>
         </is>
